--- a/ProgressReports/Jake_Progress_Report.xlsx
+++ b/ProgressReports/Jake_Progress_Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -25,31 +25,34 @@
     <t>Activities</t>
   </si>
   <si>
-    <t>45 minutes</t>
-  </si>
-  <si>
-    <t>1 hour</t>
-  </si>
-  <si>
     <t>Thinking of ideas for extra 3 operations for website to discuss at the group meeting.</t>
   </si>
   <si>
     <t>Met with group to discuss design ideas for website.</t>
   </si>
   <si>
-    <t>2 hours</t>
-  </si>
-  <si>
     <t>Requirement analysis</t>
   </si>
   <si>
     <t>ER-Diagram and additional edits to requirement analysis</t>
+  </si>
+  <si>
+    <t>Enhanced the category tree</t>
+  </si>
+  <si>
+    <t>Gathering Data for registered user's table</t>
+  </si>
+  <si>
+    <t>Designing conceptual prototype for website</t>
+  </si>
+  <si>
+    <t>Writing SQL to populate Sales_items, Suppliers, Users, Transactions tables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,7 +322,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,9 +355,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,6 +407,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,7 +603,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,65 +628,89 @@
       <c r="A2" s="12">
         <v>42755</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>42755</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>42766</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
+      <c r="B4" s="7">
+        <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>42771</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
+      <c r="B5" s="7">
+        <v>0.75</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>42793</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>42795</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>42796</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="13">
+        <v>42796</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
